--- a/createtable/express.xlsx
+++ b/createtable/express.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\stockdatamanage\createtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0DF5EF-706A-4287-92AC-CA247352EE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996B93E6-5377-44E3-972C-45C2FE169FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3A26FF66-AD25-4340-971F-17AFB45C84A2}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="10510" xr2:uid="{3A26FF66-AD25-4340-971F-17AFB45C84A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ts_code</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
     <t>TS股票代码</t>
   </si>
   <si>
@@ -241,6 +238,18 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>char(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,12 +616,12 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,356 +632,356 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
